--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04597011135137593</v>
+        <v>0.03024452979876618</v>
       </c>
       <c r="H2" t="n">
-        <v>8.731242601161359</v>
+        <v>-28.463838563026</v>
       </c>
       <c r="I2" t="n">
-        <v>55.84635694638422</v>
+        <v>101.733285878834</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07278088120675298</v>
+        <v>0.07104583732611526</v>
       </c>
       <c r="H3" t="n">
-        <v>49.44632306200638</v>
+        <v>45.88363016775652</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02691443034920758</v>
+        <v>0.01756330217041502</v>
       </c>
       <c r="H4" t="n">
-        <v>1313.650569681127</v>
+        <v>822.4929451059314</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02147392271302538</v>
+        <v>0.02620898725219534</v>
       </c>
       <c r="H5" t="n">
-        <v>465.6464101901357</v>
+        <v>590.3731447692578</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.0002609379271634512</v>
+        <v>0.0376453636828554</v>
       </c>
       <c r="H6" t="n">
-        <v>-100.7526423200153</v>
+        <v>8.583271769210267</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01098878287055104</v>
+        <v>0.03745091098883087</v>
       </c>
       <c r="H7" t="n">
-        <v>-79.34010052031998</v>
+        <v>-29.58892121481232</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01441735967603629</v>
+        <v>-0.00594064439204748</v>
       </c>
       <c r="H8" t="n">
-        <v>-176.6034324151144</v>
+        <v>68.43570796497262</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.007354373149686746</v>
+        <v>-0.001385632454148331</v>
       </c>
       <c r="H9" t="n">
-        <v>-65.83795243969968</v>
+        <v>93.56355180295316</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.07809576603960507</v>
+        <v>-0.06552774159793567</v>
       </c>
       <c r="H10" t="n">
-        <v>7.419957941730829</v>
+        <v>9.867236043281249</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.104379010752204</v>
+        <v>-0.07587304609578838</v>
       </c>
       <c r="H11" t="n">
-        <v>13.44183156326758</v>
+        <v>17.53919439010665</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.234364033537541</v>
+        <v>-0.2222606986682292</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.127804865589646</v>
+        <v>9.078962536213639</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.3046006650553484</v>
+        <v>-0.2974994537772763</v>
       </c>
       <c r="H13" t="n">
-        <v>10.83915978638414</v>
+        <v>-8.255146086400647</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04675524901591432</v>
+        <v>-0.05373465913273377</v>
       </c>
       <c r="H14" t="n">
-        <v>26.0344637108111</v>
+        <v>-44.84831305619134</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.002998826022727278</v>
+        <v>0.05431094315511857</v>
       </c>
       <c r="H15" t="n">
-        <v>-91.37558587701727</v>
+        <v>256.194477982264</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1282241253585399</v>
+        <v>0.1235641973023537</v>
       </c>
       <c r="H16" t="n">
-        <v>2.327013077440878</v>
+        <v>-1.391760732183239</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1487699398545879</v>
+        <v>0.1564427157106385</v>
       </c>
       <c r="H17" t="n">
-        <v>6.074451932967681</v>
+        <v>11.54521769741305</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.119898472790019</v>
+        <v>0.1194078031445488</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.875687999259647</v>
+        <v>-4.269064837120395</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09841050245443327</v>
+        <v>0.1274193101274259</v>
       </c>
       <c r="H19" t="n">
-        <v>-26.12591880220833</v>
+        <v>-4.349797757830496</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04423001500380927</v>
+        <v>0.04021232460564812</v>
       </c>
       <c r="H20" t="n">
-        <v>28.81485848778894</v>
+        <v>17.11379485391262</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.06161632216015929</v>
+        <v>0.04867663486258211</v>
       </c>
       <c r="H21" t="n">
-        <v>6.162074452518046</v>
+        <v>-16.13240853702199</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.09286150212249364</v>
+        <v>-0.07158136933928702</v>
       </c>
       <c r="H22" t="n">
-        <v>16.29786669512654</v>
+        <v>10.35294111122793</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1046760786371699</v>
+        <v>-0.09697757530516884</v>
       </c>
       <c r="H23" t="n">
-        <v>67.35738754165187</v>
+        <v>-55.04892678921694</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1268059882904974</v>
+        <v>0.1177125661533811</v>
       </c>
       <c r="H24" t="n">
-        <v>7.358518652889942</v>
+        <v>-0.3403001748906242</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1308765971165881</v>
+        <v>0.1118525185123732</v>
       </c>
       <c r="H25" t="n">
-        <v>3.730037797076617</v>
+        <v>-11.34804672029393</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0721377234702797</v>
+        <v>0.0591177842344799</v>
       </c>
       <c r="H26" t="n">
-        <v>45.13432808270549</v>
+        <v>18.93943251680953</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.06270963732622684</v>
+        <v>0.05948649479817009</v>
       </c>
       <c r="H27" t="n">
-        <v>-27.65099368083622</v>
+        <v>-31.36957935717876</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.08588966650287072</v>
+        <v>-0.08595534333522964</v>
       </c>
       <c r="H28" t="n">
-        <v>35.05930940747869</v>
+        <v>-35.16258455085313</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.05374503592297278</v>
+        <v>-0.08241589393561426</v>
       </c>
       <c r="H29" t="n">
-        <v>-24.48593696586514</v>
+        <v>-15.7978388662375</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04153243048046875</v>
+        <v>0.0729807116861432</v>
       </c>
       <c r="H30" t="n">
-        <v>-34.80826925787073</v>
+        <v>14.55479129374364</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04739891356466751</v>
+        <v>0.04535069509718408</v>
       </c>
       <c r="H31" t="n">
-        <v>-21.75874436212088</v>
+        <v>-25.13973292629875</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0792519880925143</v>
+        <v>0.06549111880355671</v>
       </c>
       <c r="H32" t="n">
-        <v>-19.34787837945195</v>
+        <v>-33.35185897615198</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.122643633044037</v>
+        <v>0.1017666693602952</v>
       </c>
       <c r="H33" t="n">
-        <v>49.04790974797984</v>
+        <v>23.67628855808154</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.004492133193308623</v>
+        <v>0.014630848159418</v>
       </c>
       <c r="H34" t="n">
-        <v>-117.2408211825781</v>
+        <v>-43.84675920969583</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.005801584594269904</v>
+        <v>-0.01186505017964416</v>
       </c>
       <c r="H35" t="n">
-        <v>-48.24684887390106</v>
+        <v>-5.842416858380166</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01417906480938158</v>
+        <v>0.03007868271686307</v>
       </c>
       <c r="H36" t="n">
-        <v>2534.499860644499</v>
+        <v>5488.682081029435</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01534706755737051</v>
+        <v>-0.003502189967209183</v>
       </c>
       <c r="H37" t="n">
-        <v>-222.2458473603309</v>
+        <v>72.10358405226897</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.113937436002628</v>
+        <v>0.07278370639071388</v>
       </c>
       <c r="H38" t="n">
-        <v>6.228173372876682</v>
+        <v>-32.14100253217061</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0995463648798546</v>
+        <v>0.09728538022048455</v>
       </c>
       <c r="H39" t="n">
-        <v>16.20725196239505</v>
+        <v>13.56785057077581</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01972892682793919</v>
+        <v>0.01190504196651193</v>
       </c>
       <c r="H40" t="n">
-        <v>564.2160903023046</v>
+        <v>300.8084422860321</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02896615932455263</v>
+        <v>0.0196958696081565</v>
       </c>
       <c r="H41" t="n">
-        <v>93.14962384852629</v>
+        <v>31.33428438199767</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1107632291551837</v>
+        <v>0.1235658145244171</v>
       </c>
       <c r="H42" t="n">
-        <v>9.737049989373958</v>
+        <v>22.42102427734318</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.115825600562973</v>
+        <v>0.1178434562667192</v>
       </c>
       <c r="H43" t="n">
-        <v>-3.594756763264709</v>
+        <v>-1.915232815270834</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02362399908029809</v>
+        <v>0.02383806093267719</v>
       </c>
       <c r="H44" t="n">
-        <v>-33.80331645605975</v>
+        <v>-33.2034948656252</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.02003131540241621</v>
+        <v>0.03192040387194704</v>
       </c>
       <c r="H45" t="n">
-        <v>22.36470548471544</v>
+        <v>94.9912294962332</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05622787253319782</v>
+        <v>0.06466868648872473</v>
       </c>
       <c r="H46" t="n">
-        <v>55.16051390213064</v>
+        <v>78.45289492399084</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06329790200906513</v>
+        <v>0.05168877455710817</v>
       </c>
       <c r="H47" t="n">
-        <v>25.49069812834877</v>
+        <v>2.475124746494537</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04416415558921102</v>
+        <v>0.032104565856088</v>
       </c>
       <c r="H48" t="n">
-        <v>3.232377913807915</v>
+        <v>-24.95654833658694</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06107041279448814</v>
+        <v>0.06167364336885237</v>
       </c>
       <c r="H49" t="n">
-        <v>-12.0986753650556</v>
+        <v>-11.23041913228128</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.009848884389491852</v>
+        <v>0.0190815693623699</v>
       </c>
       <c r="H50" t="n">
-        <v>-157.0199256066034</v>
+        <v>10.47237661358225</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01849815155396362</v>
+        <v>0.02507954258999711</v>
       </c>
       <c r="H51" t="n">
-        <v>-4.990107404059628</v>
+        <v>28.81312172622845</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1153573381157243</v>
+        <v>-0.1063797840509629</v>
       </c>
       <c r="H52" t="n">
-        <v>11.43434179893924</v>
+        <v>-2.762090475252428</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09424949570173975</v>
+        <v>-0.09509200897074017</v>
       </c>
       <c r="H53" t="n">
-        <v>2.051309926152306</v>
+        <v>-2.963565021964672</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07287323832166173</v>
+        <v>0.071011525489643</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.3411018044857281</v>
+        <v>-2.887115318753921</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0690171625078622</v>
+        <v>0.07671074283154139</v>
       </c>
       <c r="H55" t="n">
-        <v>11.40486869572902</v>
+        <v>23.82355231897832</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02930964233000437</v>
+        <v>0.0341787461613418</v>
       </c>
       <c r="H56" t="n">
-        <v>-16.23235221534381</v>
+        <v>-2.31633883728726</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.002091618120312702</v>
+        <v>0.0149703396837001</v>
       </c>
       <c r="H57" t="n">
-        <v>-63.77220579612746</v>
+        <v>159.2932141657255</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03181205613229588</v>
+        <v>0.04302553525589588</v>
       </c>
       <c r="H58" t="n">
-        <v>27.19425880607525</v>
+        <v>72.02915284223023</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02825739096875639</v>
+        <v>0.03176422991046859</v>
       </c>
       <c r="H59" t="n">
-        <v>19.33712382947873</v>
+        <v>34.1472693768815</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02421440998820523</v>
+        <v>0.04135616179583994</v>
       </c>
       <c r="H60" t="n">
-        <v>-25.36243488415111</v>
+        <v>27.47464094653223</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03030962024246268</v>
+        <v>0.04687787486306264</v>
       </c>
       <c r="H61" t="n">
-        <v>139.4504392272335</v>
+        <v>270.3420774066287</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06852491144207114</v>
+        <v>0.0610339271685276</v>
       </c>
       <c r="H62" t="n">
-        <v>13.52209995916156</v>
+        <v>1.112127474737234</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.05646989648123778</v>
+        <v>0.06703571438024759</v>
       </c>
       <c r="H63" t="n">
-        <v>73.2763866068635</v>
+        <v>105.6973199035065</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02502718725525557</v>
+        <v>0.04097478374210759</v>
       </c>
       <c r="H64" t="n">
-        <v>-38.24439749446227</v>
+        <v>1.106945487715235</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05987454160710998</v>
+        <v>0.04985649981749831</v>
       </c>
       <c r="H65" t="n">
-        <v>6.800731013273888</v>
+        <v>-11.06887028526866</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07326685689102191</v>
+        <v>0.07866416971532111</v>
       </c>
       <c r="H66" t="n">
-        <v>-21.6850428820259</v>
+        <v>-15.91585418848062</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1043972521085254</v>
+        <v>0.1288651572240292</v>
       </c>
       <c r="H67" t="n">
-        <v>-9.571004185867107</v>
+        <v>11.62311773384005</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04288143962634312</v>
+        <v>-0.03808273750484675</v>
       </c>
       <c r="H68" t="n">
-        <v>23.04403295478758</v>
+        <v>-9.27463371999886</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.02604281458522599</v>
+        <v>-0.02221914123697266</v>
       </c>
       <c r="H69" t="n">
-        <v>22.71696891634917</v>
+        <v>-4.699346362983955</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0696708033879246</v>
+        <v>0.06236038185475334</v>
       </c>
       <c r="H70" t="n">
-        <v>-24.79099984795698</v>
+        <v>-32.68253356744713</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08915063996527724</v>
+        <v>0.08895172043278908</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.256532720622385</v>
+        <v>-2.474625207928791</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.06316353328946075</v>
+        <v>-0.05460853430156384</v>
       </c>
       <c r="H72" t="n">
-        <v>12.6290612629356</v>
+        <v>2.625650671821967</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.03813696704106988</v>
+        <v>-0.06550506458061546</v>
       </c>
       <c r="H73" t="n">
-        <v>-48.29768435895382</v>
+        <v>11.19473340953218</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1112737529737772</v>
+        <v>0.1098499763538468</v>
       </c>
       <c r="H74" t="n">
-        <v>11.33297455105721</v>
+        <v>9.908440175637542</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1316505128579339</v>
+        <v>0.1406386173343374</v>
       </c>
       <c r="H75" t="n">
-        <v>35.15921542295493</v>
+        <v>44.38686765763468</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01414312436230436</v>
+        <v>-0.00352592518455871</v>
       </c>
       <c r="H76" t="n">
-        <v>-44.68989672615453</v>
+        <v>-113.7889819178554</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01964759205816776</v>
+        <v>0.01119260878414328</v>
       </c>
       <c r="H77" t="n">
-        <v>39.25534162328225</v>
+        <v>-20.67065748936501</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08830199876103237</v>
+        <v>0.09364663940164723</v>
       </c>
       <c r="H78" t="n">
-        <v>37.37735406786491</v>
+        <v>45.69237071475042</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.1127325810153542</v>
+        <v>0.09666924155290466</v>
       </c>
       <c r="H79" t="n">
-        <v>46.95196899338368</v>
+        <v>26.01268647758129</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1712397775754358</v>
+        <v>-0.1675174004908132</v>
       </c>
       <c r="H80" t="n">
-        <v>3.400416382212997</v>
+        <v>-1.152718178376996</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1539901061254023</v>
+        <v>-0.1516918080082811</v>
       </c>
       <c r="H81" t="n">
-        <v>-26.70349395116234</v>
+        <v>27.79744229682048</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1681320364792674</v>
+        <v>0.119646037355407</v>
       </c>
       <c r="H82" t="n">
-        <v>46.59013525887637</v>
+        <v>4.316400172078088</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1914886395356381</v>
+        <v>0.1764312836270396</v>
       </c>
       <c r="H83" t="n">
-        <v>7.588638683983058</v>
+        <v>-0.8713954377009145</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.06312949715329157</v>
+        <v>0.07095170537769502</v>
       </c>
       <c r="H84" t="n">
-        <v>164.8310537515785</v>
+        <v>197.6455658282839</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.08630705179767348</v>
+        <v>0.07916975958736094</v>
       </c>
       <c r="H85" t="n">
-        <v>40.16359556741047</v>
+        <v>28.57255499800427</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 125/DJI_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03024452979876618</v>
+        <v>0.04314941262403053</v>
       </c>
       <c r="H2" t="n">
-        <v>-28.463838563026</v>
+        <v>2.059558138978731</v>
       </c>
       <c r="I2" t="n">
-        <v>101.733285878834</v>
+        <v>60.79545561192806</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07104583732611526</v>
+        <v>0.06514116215503429</v>
       </c>
       <c r="H3" t="n">
-        <v>45.88363016775652</v>
+        <v>33.75912743349041</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01756330217041502</v>
+        <v>0.006296131661288136</v>
       </c>
       <c r="H4" t="n">
-        <v>822.4929451059314</v>
+        <v>230.6973246056239</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02620898725219534</v>
+        <v>0.01959938850275934</v>
       </c>
       <c r="H5" t="n">
-        <v>590.3731447692578</v>
+        <v>416.2691463811145</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0376453636828554</v>
+        <v>0.02293909489694262</v>
       </c>
       <c r="H6" t="n">
-        <v>8.583271769210267</v>
+        <v>-33.83509331140302</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03745091098883087</v>
+        <v>0.0162694607159024</v>
       </c>
       <c r="H7" t="n">
-        <v>-29.58892121481232</v>
+        <v>-69.41195153833343</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.00594064439204748</v>
+        <v>-0.01592594257915191</v>
       </c>
       <c r="H8" t="n">
-        <v>68.43570796497262</v>
+        <v>15.3810480266481</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.001385632454148331</v>
+        <v>-0.001841710952001857</v>
       </c>
       <c r="H9" t="n">
-        <v>93.56355180295316</v>
+        <v>91.44500614069423</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06552774159793567</v>
+        <v>-0.06858393625721131</v>
       </c>
       <c r="H10" t="n">
-        <v>9.867236043281249</v>
+        <v>5.663470353926972</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.07587304609578838</v>
+        <v>-0.09141119550083635</v>
       </c>
       <c r="H11" t="n">
-        <v>17.53919439010665</v>
+        <v>0.6519283113263623</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2222606986682292</v>
+        <v>-0.220474027838467</v>
       </c>
       <c r="H12" t="n">
-        <v>9.078962536213639</v>
+        <v>9.809842833187542</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2974994537772763</v>
+        <v>-0.3177153950892906</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.255146086400647</v>
+        <v>-15.61139381129434</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05373465913273377</v>
+        <v>-0.03635396749877619</v>
       </c>
       <c r="H14" t="n">
-        <v>-44.84831305619134</v>
+        <v>2.003456426700552</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05431094315511857</v>
+        <v>0.05760701532592673</v>
       </c>
       <c r="H15" t="n">
-        <v>256.194477982264</v>
+        <v>265.6737512594899</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1235641973023537</v>
+        <v>0.1329894552070179</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.391760732183239</v>
+        <v>6.129900937740514</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1564427157106385</v>
+        <v>0.160429742634934</v>
       </c>
       <c r="H17" t="n">
-        <v>11.54521769741305</v>
+        <v>14.38800768744737</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1194078031445488</v>
+        <v>0.1320510714258215</v>
       </c>
       <c r="H18" t="n">
-        <v>-4.269064837120395</v>
+        <v>5.867223279797911</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1274193101274259</v>
+        <v>0.1150871047828415</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.349797757830496</v>
+        <v>-13.60724809343366</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04021232460564812</v>
+        <v>0.04112336532738485</v>
       </c>
       <c r="H20" t="n">
-        <v>17.11379485391262</v>
+        <v>19.7670967267929</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04867663486258211</v>
+        <v>0.05791685721070196</v>
       </c>
       <c r="H21" t="n">
-        <v>-16.13240853702199</v>
+        <v>-0.2119326227162358</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.07158136933928702</v>
+        <v>-0.07052924021946347</v>
       </c>
       <c r="H22" t="n">
-        <v>10.35294111122793</v>
+        <v>11.67060633660727</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.09697757530516884</v>
+        <v>-0.1020486548571485</v>
       </c>
       <c r="H23" t="n">
-        <v>-55.04892678921694</v>
+        <v>-63.15663044877915</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1177125661533811</v>
+        <v>0.1284528633293741</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.3403001748906242</v>
+        <v>8.752822399611913</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1118525185123732</v>
+        <v>0.141305506620729</v>
       </c>
       <c r="H25" t="n">
-        <v>-11.34804672029393</v>
+        <v>11.99577209091021</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0591177842344799</v>
+        <v>0.04206632653179394</v>
       </c>
       <c r="H26" t="n">
-        <v>18.93943251680953</v>
+        <v>-15.36649976742151</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.05948649479817009</v>
+        <v>0.09629888295597235</v>
       </c>
       <c r="H27" t="n">
-        <v>-31.36957935717876</v>
+        <v>11.10139985766141</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.08595534333522964</v>
+        <v>-0.07835283892605897</v>
       </c>
       <c r="H28" t="n">
-        <v>-35.16258455085313</v>
+        <v>-23.20784031819758</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.08241589393561426</v>
+        <v>-0.08629659800508381</v>
       </c>
       <c r="H29" t="n">
-        <v>-15.7978388662375</v>
+        <v>-21.25039325914446</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0729807116861432</v>
+        <v>0.06578618681454668</v>
       </c>
       <c r="H30" t="n">
-        <v>14.55479129374364</v>
+        <v>3.261844485171043</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04535069509718408</v>
+        <v>0.05992030089595504</v>
       </c>
       <c r="H31" t="n">
-        <v>-25.13973292629875</v>
+        <v>-1.089724896272676</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06549111880355671</v>
+        <v>0.07969497738109868</v>
       </c>
       <c r="H32" t="n">
-        <v>-33.35185897615198</v>
+        <v>-18.89706286252383</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1017666693602952</v>
+        <v>0.09048705000702399</v>
       </c>
       <c r="H33" t="n">
-        <v>23.67628855808154</v>
+        <v>9.968249700864444</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>0.014630848159418</v>
+        <v>-0.002060927227598771</v>
       </c>
       <c r="H34" t="n">
-        <v>-43.84675920969583</v>
+        <v>-107.9098451164058</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.01186505017964416</v>
+        <v>-0.01051318589315675</v>
       </c>
       <c r="H35" t="n">
-        <v>-5.842416858380166</v>
+        <v>6.216915481556747</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>0.03007868271686307</v>
+        <v>0.01131872201367714</v>
       </c>
       <c r="H36" t="n">
-        <v>5488.682081029435</v>
+        <v>2003.04219414925</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.003502189967209183</v>
+        <v>0.00683811696603353</v>
       </c>
       <c r="H37" t="n">
-        <v>72.10358405226897</v>
+        <v>154.4684774297722</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.07278370639071388</v>
+        <v>0.1199671450287729</v>
       </c>
       <c r="H38" t="n">
-        <v>-32.14100253217061</v>
+        <v>11.84989875383528</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09728538022048455</v>
+        <v>0.1182195955492491</v>
       </c>
       <c r="H39" t="n">
-        <v>13.56785057077581</v>
+        <v>38.0057859818868</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.01190504196651193</v>
+        <v>0.0312007359582262</v>
       </c>
       <c r="H40" t="n">
-        <v>300.8084422860321</v>
+        <v>950.4388319479764</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0196958696081565</v>
+        <v>0.02463498740924376</v>
       </c>
       <c r="H41" t="n">
-        <v>31.33428438199767</v>
+        <v>64.2688800505002</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1235658145244171</v>
+        <v>0.1083006493956065</v>
       </c>
       <c r="H42" t="n">
-        <v>22.42102427734318</v>
+        <v>7.29728509410414</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1178434562667192</v>
+        <v>0.105973908647577</v>
       </c>
       <c r="H43" t="n">
-        <v>-1.915232815270834</v>
+        <v>-11.79462579723324</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02383806093267719</v>
+        <v>0.01785244111131554</v>
       </c>
       <c r="H44" t="n">
-        <v>-33.2034948656252</v>
+        <v>-49.97576867846407</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03192040387194704</v>
+        <v>0.03160702251619605</v>
       </c>
       <c r="H45" t="n">
-        <v>94.9912294962332</v>
+        <v>93.07688605295411</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06466868648872473</v>
+        <v>0.06864599986596653</v>
       </c>
       <c r="H46" t="n">
-        <v>78.45289492399084</v>
+        <v>89.42826994281801</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05168877455710817</v>
+        <v>0.06635106289238056</v>
       </c>
       <c r="H47" t="n">
-        <v>2.475124746494537</v>
+        <v>31.54371534668483</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.032104565856088</v>
+        <v>0.05843369710995205</v>
       </c>
       <c r="H48" t="n">
-        <v>-24.95654833658694</v>
+        <v>36.58699962621249</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06167364336885237</v>
+        <v>0.05726030159442948</v>
       </c>
       <c r="H49" t="n">
-        <v>-11.23041913228128</v>
+        <v>-17.58273558614225</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0190815693623699</v>
+        <v>-0.007451780070311671</v>
       </c>
       <c r="H50" t="n">
-        <v>10.47237661358225</v>
+        <v>-143.1419365323532</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02507954258999711</v>
+        <v>0.01750886359214551</v>
       </c>
       <c r="H51" t="n">
-        <v>28.81312172622845</v>
+        <v>-10.07127147197189</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1063797840509629</v>
+        <v>-0.117805289271679</v>
       </c>
       <c r="H52" t="n">
-        <v>-2.762090475252428</v>
+        <v>-13.79904464555063</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.09509200897074017</v>
+        <v>-0.09181723855864715</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.963565021964672</v>
+        <v>0.5822853592308389</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.071011525489643</v>
+        <v>0.08505192340343821</v>
       </c>
       <c r="H54" t="n">
-        <v>-2.887115318753921</v>
+        <v>16.31404300138482</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.07671074283154139</v>
+        <v>0.06874136818618598</v>
       </c>
       <c r="H55" t="n">
-        <v>23.82355231897832</v>
+        <v>10.95969203130345</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0341787461613418</v>
+        <v>0.03673717257822359</v>
       </c>
       <c r="H56" t="n">
-        <v>-2.31633883728726</v>
+        <v>4.995704092452656</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0149703396837001</v>
+        <v>0.02351307982883641</v>
       </c>
       <c r="H57" t="n">
-        <v>159.2932141657255</v>
+        <v>307.2574285266576</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.04302553525589588</v>
+        <v>0.04896086991176206</v>
       </c>
       <c r="H58" t="n">
-        <v>72.02915284223023</v>
+        <v>95.76042281042598</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03176422991046859</v>
+        <v>0.02174369270121645</v>
       </c>
       <c r="H59" t="n">
-        <v>34.1472693768815</v>
+        <v>-8.17164432256857</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04135616179583994</v>
+        <v>0.01982788087313853</v>
       </c>
       <c r="H60" t="n">
-        <v>27.47464094653223</v>
+        <v>-38.88330335122644</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.04687787486306264</v>
+        <v>0.04678051883948923</v>
       </c>
       <c r="H61" t="n">
-        <v>270.3420774066287</v>
+        <v>269.5729505611063</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0610339271685276</v>
+        <v>0.0534043052293935</v>
       </c>
       <c r="H62" t="n">
-        <v>1.112127474737234</v>
+        <v>-11.5275197163021</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.06703571438024759</v>
+        <v>0.05871433458377853</v>
       </c>
       <c r="H63" t="n">
-        <v>105.6973199035065</v>
+        <v>80.16338567370688</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.04097478374210759</v>
+        <v>0.01800360959049803</v>
       </c>
       <c r="H64" t="n">
-        <v>1.106945487715235</v>
+        <v>-55.57536105851422</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04985649981749831</v>
+        <v>0.05679254753738667</v>
       </c>
       <c r="H65" t="n">
-        <v>-11.06887028526866</v>
+        <v>1.303248931741971</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.07866416971532111</v>
+        <v>0.1013912121159845</v>
       </c>
       <c r="H66" t="n">
-        <v>-15.91585418848062</v>
+        <v>8.377085710302403</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1288651572240292</v>
+        <v>0.08861652865372539</v>
       </c>
       <c r="H67" t="n">
-        <v>11.62311773384005</v>
+        <v>-23.24028135950991</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.03808273750484675</v>
+        <v>-0.01483484251583027</v>
       </c>
       <c r="H68" t="n">
-        <v>-9.27463371999886</v>
+        <v>57.43289247510354</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.02221914123697266</v>
+        <v>-0.02108640432576117</v>
       </c>
       <c r="H69" t="n">
-        <v>-4.699346362983955</v>
+        <v>0.6382503037910543</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06236038185475334</v>
+        <v>0.07418125034718016</v>
       </c>
       <c r="H70" t="n">
-        <v>-32.68253356744713</v>
+        <v>-19.922013277562</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.08895172043278908</v>
+        <v>0.0943058246545119</v>
       </c>
       <c r="H71" t="n">
-        <v>-2.474625207928791</v>
+        <v>3.395536924504248</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05460853430156384</v>
+        <v>-0.06704701991180746</v>
       </c>
       <c r="H72" t="n">
-        <v>2.625650671821967</v>
+        <v>-19.55383937339416</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.06550506458061546</v>
+        <v>-0.06196467059367657</v>
       </c>
       <c r="H73" t="n">
-        <v>11.19473340953218</v>
+        <v>15.99444826911324</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1098499763538468</v>
+        <v>0.08770351430618467</v>
       </c>
       <c r="H74" t="n">
-        <v>9.908440175637542</v>
+        <v>-12.24980855467511</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1406386173343374</v>
+        <v>0.1071687980909943</v>
       </c>
       <c r="H75" t="n">
-        <v>44.38686765763468</v>
+        <v>10.02502271624788</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.00352592518455871</v>
+        <v>0.01168001437719657</v>
       </c>
       <c r="H76" t="n">
-        <v>-113.7889819178554</v>
+        <v>-54.32248314491348</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01119260878414328</v>
+        <v>0.03419671685587713</v>
       </c>
       <c r="H77" t="n">
-        <v>-20.67065748936501</v>
+        <v>142.37450951045</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09364663940164723</v>
+        <v>0.07158858032586138</v>
       </c>
       <c r="H78" t="n">
-        <v>45.69237071475042</v>
+        <v>11.37516573386641</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09666924155290466</v>
+        <v>0.07029807107942133</v>
       </c>
       <c r="H79" t="n">
-        <v>26.01268647758129</v>
+        <v>-8.363315480634673</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1675174004908132</v>
+        <v>-0.1703849009931187</v>
       </c>
       <c r="H80" t="n">
-        <v>-1.152718178376996</v>
+        <v>-2.884212753485146</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1516918080082811</v>
+        <v>-0.1473686933777397</v>
       </c>
       <c r="H81" t="n">
-        <v>27.79744229682048</v>
+        <v>29.855166689901</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.119646037355407</v>
+        <v>0.1488791644882012</v>
       </c>
       <c r="H82" t="n">
-        <v>4.316400172078088</v>
+        <v>29.80403566482165</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1764312836270396</v>
+        <v>0.1953565089928853</v>
       </c>
       <c r="H83" t="n">
-        <v>-0.8713954377009145</v>
+        <v>9.761816218283395</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07095170537769502</v>
+        <v>0.0756315108316095</v>
       </c>
       <c r="H84" t="n">
-        <v>197.6455658282839</v>
+        <v>217.2775582501963</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.07916975958736094</v>
+        <v>0.0650683303849946</v>
       </c>
       <c r="H85" t="n">
-        <v>28.57255499800427</v>
+        <v>5.671679826455108</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>